--- a/notebook/Restos_a_pagar.xlsx
+++ b/notebook/Restos_a_pagar.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="111">
   <si>
     <t>UG</t>
   </si>
@@ -154,24 +154,24 @@
     <t>26669742000106</t>
   </si>
   <si>
+    <t>05691235000190</t>
+  </si>
+  <si>
     <t>38680138000151</t>
   </si>
   <si>
-    <t>05691235000190</t>
-  </si>
-  <si>
     <t>FENARA &amp; FENARA - ENGENHARIA E ADMINISTRACAO LTDA</t>
   </si>
   <si>
     <t>J. T. CATALDO CASTRO CRIATIVA DIGITAL</t>
   </si>
   <si>
+    <t>COPYUAI LOCACAO DE EQUIPAMENTOS LTDA</t>
+  </si>
+  <si>
     <t>GESMAQ COMERCIO E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>COPYUAI LOCACAO DE EQUIPAMENTOS LTDA</t>
-  </si>
-  <si>
     <t>160533</t>
   </si>
   <si>
@@ -196,49 +196,46 @@
     <t>33903963</t>
   </si>
   <si>
+    <t>33904012</t>
+  </si>
+  <si>
     <t>33903917</t>
   </si>
   <si>
-    <t>33904012</t>
-  </si>
-  <si>
     <t>MANUTENCAO E CONSERV. DE BENS IMOVEIS</t>
   </si>
   <si>
     <t>SERVICOS GRAFICOS E EDITORIAIS</t>
   </si>
   <si>
+    <t>MANUTENCAO E CONSERVACAO DE EQUIPAMENTOS DE TIC</t>
+  </si>
+  <si>
     <t>MANUT. E CONSERV. DE MAQUINAS E EQUIPAMENTOS</t>
   </si>
   <si>
-    <t>MANUTENCAO E CONSERVACAO DE EQUIPAMENTOS DE TIC</t>
-  </si>
-  <si>
     <t>2022NE002483</t>
   </si>
   <si>
     <t>2022NE002482</t>
   </si>
   <si>
-    <t>2022NE002701</t>
-  </si>
-  <si>
     <t>2022NE002702</t>
   </si>
   <si>
     <t>2022NE002421</t>
   </si>
   <si>
+    <t>2022NE001087</t>
+  </si>
+  <si>
+    <t>2022NE001843</t>
+  </si>
+  <si>
+    <t>2022NE001086</t>
+  </si>
+  <si>
     <t>2022NE001085</t>
-  </si>
-  <si>
-    <t>2022NE001086</t>
-  </si>
-  <si>
-    <t>2022NE001087</t>
-  </si>
-  <si>
-    <t>2022NE001843</t>
   </si>
   <si>
     <t>B4OMOBMAQUA</t>
@@ -711,7 +708,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI10"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -823,7 +820,7 @@
     </row>
     <row r="2" spans="1:35">
       <c r="A2" s="1">
-        <v>2561</v>
+        <v>2788</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -850,7 +847,7 @@
         <v>44909</v>
       </c>
       <c r="J2">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="K2" t="s">
         <v>52</v>
@@ -874,52 +871,52 @@
         <v>66</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V2" t="s">
+        <v>87</v>
+      </c>
+      <c r="W2" t="s">
         <v>88</v>
       </c>
-      <c r="W2" t="s">
-        <v>89</v>
-      </c>
       <c r="X2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" t="s">
-        <v>96</v>
-      </c>
       <c r="AB2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF2">
-        <v>235144.91</v>
+        <v>212239.4</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>22905.51</v>
       </c>
       <c r="AH2">
         <v>235144.91</v>
@@ -930,7 +927,7 @@
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="1">
-        <v>2560</v>
+        <v>2787</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -957,7 +954,7 @@
         <v>44909</v>
       </c>
       <c r="J3">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="K3" t="s">
         <v>52</v>
@@ -981,46 +978,46 @@
         <v>67</v>
       </c>
       <c r="R3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="V3" t="s">
+        <v>87</v>
+      </c>
+      <c r="W3" t="s">
         <v>88</v>
       </c>
-      <c r="W3" t="s">
-        <v>89</v>
-      </c>
       <c r="X3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" t="s">
         <v>95</v>
       </c>
-      <c r="AA3" t="s">
-        <v>96</v>
-      </c>
       <c r="AB3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AC3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AF3">
         <v>155796.97</v>
@@ -1037,7 +1034,7 @@
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="1">
-        <v>2562</v>
+        <v>3004</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -1046,10 +1043,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
         <v>43</v>
@@ -1064,7 +1061,7 @@
         <v>44923</v>
       </c>
       <c r="J4">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="K4" t="s">
         <v>52</v>
@@ -1094,25 +1091,25 @@
         <v>79</v>
       </c>
       <c r="T4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U4" t="s">
         <v>85</v>
       </c>
       <c r="V4" t="s">
+        <v>87</v>
+      </c>
+      <c r="W4" t="s">
         <v>88</v>
       </c>
-      <c r="W4" t="s">
-        <v>89</v>
-      </c>
       <c r="X4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y4" t="s">
         <v>92</v>
       </c>
-      <c r="Y4" t="s">
-        <v>93</v>
-      </c>
       <c r="Z4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA4" t="s">
         <v>96</v>
@@ -1130,21 +1127,21 @@
         <v>108</v>
       </c>
       <c r="AF4">
-        <v>19358.27</v>
+        <v>12733.76</v>
       </c>
       <c r="AG4">
         <v>0</v>
       </c>
       <c r="AH4">
-        <v>19358.27</v>
+        <v>12733.76</v>
       </c>
       <c r="AI4">
-        <v>130641.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="1">
-        <v>2768</v>
+        <v>3011</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -1162,16 +1159,16 @@
         <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" s="2">
-        <v>44923</v>
+        <v>44895</v>
       </c>
       <c r="J5">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
@@ -1186,10 +1183,10 @@
         <v>56</v>
       </c>
       <c r="O5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q5" t="s">
         <v>69</v>
@@ -1201,49 +1198,49 @@
         <v>80</v>
       </c>
       <c r="T5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W5" t="s">
         <v>89</v>
       </c>
       <c r="X5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y5" t="s">
         <v>93</v>
       </c>
       <c r="Z5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC5" t="s">
         <v>103</v>
       </c>
       <c r="AD5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE5" t="s">
         <v>109</v>
       </c>
       <c r="AF5">
-        <v>12733.76</v>
+        <v>5758.75</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>12733.76</v>
+        <v>5758.75</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1251,7 +1248,7 @@
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>2775</v>
+        <v>2987</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1269,16 +1266,16 @@
         <v>43</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" s="2">
-        <v>44895</v>
+        <v>44840</v>
       </c>
       <c r="J6">
-        <v>366</v>
+        <v>432</v>
       </c>
       <c r="K6" t="s">
         <v>52</v>
@@ -1287,37 +1284,37 @@
         <v>53</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q6" t="s">
         <v>70</v>
       </c>
       <c r="R6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V6" t="s">
+        <v>87</v>
+      </c>
+      <c r="W6" t="s">
         <v>88</v>
-      </c>
-      <c r="W6" t="s">
-        <v>90</v>
       </c>
       <c r="X6" t="s">
         <v>91</v>
@@ -1326,66 +1323,66 @@
         <v>94</v>
       </c>
       <c r="Z6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF6">
-        <v>5758.75</v>
+        <v>1598</v>
       </c>
       <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>5758.75</v>
+        <v>1598</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>7990</v>
       </c>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>2785</v>
+        <v>3282</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="2">
-        <v>44840</v>
+        <v>44895</v>
       </c>
       <c r="J7">
-        <v>421</v>
+        <v>377</v>
       </c>
       <c r="K7" t="s">
         <v>52</v>
@@ -1400,10 +1397,10 @@
         <v>56</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q7" t="s">
         <v>71</v>
@@ -1421,19 +1418,19 @@
         <v>86</v>
       </c>
       <c r="V7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="W7" t="s">
         <v>89</v>
       </c>
       <c r="X7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Z7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA7" t="s">
         <v>97</v>
@@ -1442,7 +1439,7 @@
         <v>100</v>
       </c>
       <c r="AC7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AD7" t="s">
         <v>106</v>
@@ -1451,21 +1448,21 @@
         <v>110</v>
       </c>
       <c r="AF7">
-        <v>5543.35</v>
+        <v>1016.25</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>5543.35</v>
+        <v>1016.25</v>
       </c>
       <c r="AI7">
-        <v>27716.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>2786</v>
+        <v>3022</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -1483,16 +1480,16 @@
         <v>43</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I8" s="2">
         <v>44840</v>
       </c>
       <c r="J8">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="K8" t="s">
         <v>52</v>
@@ -1507,61 +1504,61 @@
         <v>57</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q8" t="s">
         <v>72</v>
       </c>
       <c r="R8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V8" t="s">
+        <v>87</v>
+      </c>
+      <c r="W8" t="s">
         <v>88</v>
       </c>
-      <c r="W8" t="s">
-        <v>89</v>
-      </c>
       <c r="X8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF8">
-        <v>3466.7</v>
+        <v>0.04</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>3466.66</v>
       </c>
       <c r="AH8">
         <v>3466.7</v>
@@ -1572,7 +1569,7 @@
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>2752</v>
+        <v>3021</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -1599,7 +1596,7 @@
         <v>44840</v>
       </c>
       <c r="J9">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="K9" t="s">
         <v>52</v>
@@ -1608,10 +1605,10 @@
         <v>53</v>
       </c>
       <c r="M9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O9" t="s">
         <v>61</v>
@@ -1623,165 +1620,58 @@
         <v>73</v>
       </c>
       <c r="R9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="U9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="V9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W9" t="s">
         <v>88</v>
       </c>
-      <c r="W9" t="s">
-        <v>89</v>
-      </c>
       <c r="X9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AB9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AC9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AD9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF9">
-        <v>1598</v>
+        <v>0.02</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>5543.33</v>
       </c>
       <c r="AH9">
-        <v>1598</v>
+        <v>5543.35</v>
       </c>
       <c r="AI9">
-        <v>7990</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
-      <c r="A10" s="1">
-        <v>3045</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="2">
-        <v>44895</v>
-      </c>
-      <c r="J10">
-        <v>366</v>
-      </c>
-      <c r="K10" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" t="s">
-        <v>59</v>
-      </c>
-      <c r="P10" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" t="s">
-        <v>78</v>
-      </c>
-      <c r="S10" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10" t="s">
-        <v>84</v>
-      </c>
-      <c r="U10" t="s">
-        <v>87</v>
-      </c>
-      <c r="V10" t="s">
-        <v>88</v>
-      </c>
-      <c r="W10" t="s">
-        <v>90</v>
-      </c>
-      <c r="X10" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF10">
-        <v>1016.25</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>1016.25</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
+        <v>27716.65</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/Restos_a_pagar.xlsx
+++ b/notebook/Restos_a_pagar.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9786e5a59430ec7c/Trabalho/ESA 2023/Dashboard_ESA/notebook/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED22E30D478764400A79D078C0426A81FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD9E03E-494C-4391-AC43-14DE5511F256}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="4644" yWindow="4392" windowWidth="13320" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -352,11 +358,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,13 +426,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -464,7 +478,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -498,6 +512,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -532,9 +547,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -707,14 +723,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,9 +837,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>2788</v>
+        <v>2794</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
@@ -847,7 +866,7 @@
         <v>44909</v>
       </c>
       <c r="J2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K2" t="s">
         <v>52</v>
@@ -916,18 +935,18 @@
         <v>212239.4</v>
       </c>
       <c r="AG2">
-        <v>22905.51</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>235144.91</v>
+        <v>212239.4</v>
       </c>
       <c r="AI2">
-        <v>199855.09</v>
+        <v>222760.6</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2787</v>
+        <v>2793</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -954,7 +973,7 @@
         <v>44909</v>
       </c>
       <c r="J3">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K3" t="s">
         <v>52</v>
@@ -1032,9 +1051,9 @@
         <v>204469.27</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3004</v>
+        <v>3010</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -1061,7 +1080,7 @@
         <v>44923</v>
       </c>
       <c r="J4">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="K4" t="s">
         <v>52</v>
@@ -1139,9 +1158,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3011</v>
+        <v>3017</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
@@ -1168,7 +1187,7 @@
         <v>44895</v>
       </c>
       <c r="J5">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K5" t="s">
         <v>52</v>
@@ -1246,9 +1265,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>2987</v>
+        <v>2993</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1275,7 +1294,7 @@
         <v>44840</v>
       </c>
       <c r="J6">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K6" t="s">
         <v>52</v>
@@ -1353,9 +1372,9 @@
         <v>7990</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>3282</v>
+        <v>3287</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -1382,7 +1401,7 @@
         <v>44895</v>
       </c>
       <c r="J7">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K7" t="s">
         <v>52</v>
@@ -1460,9 +1479,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>3022</v>
+        <v>3028</v>
       </c>
       <c r="B8" t="s">
         <v>34</v>
@@ -1489,7 +1508,7 @@
         <v>44840</v>
       </c>
       <c r="J8">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K8" t="s">
         <v>52</v>
@@ -1558,18 +1577,18 @@
         <v>0.04</v>
       </c>
       <c r="AG8">
-        <v>3466.66</v>
+        <v>0</v>
       </c>
       <c r="AH8">
-        <v>3466.7</v>
+        <v>0.04</v>
       </c>
       <c r="AI8">
-        <v>17333.3</v>
+        <v>20799.96</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>3021</v>
+        <v>3027</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
@@ -1596,7 +1615,7 @@
         <v>44840</v>
       </c>
       <c r="J9">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="K9" t="s">
         <v>52</v>
@@ -1665,13 +1684,13 @@
         <v>0.02</v>
       </c>
       <c r="AG9">
-        <v>5543.33</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>5543.35</v>
+        <v>0.02</v>
       </c>
       <c r="AI9">
-        <v>27716.65</v>
+        <v>33259.980000000003</v>
       </c>
     </row>
   </sheetData>

--- a/notebook/Restos_a_pagar.xlsx
+++ b/notebook/Restos_a_pagar.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9786e5a59430ec7c/Trabalho/ESA 2023/Dashboard_ESA/notebook/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED22E30D478764400A79D078C0426A81FD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD9E03E-494C-4391-AC43-14DE5511F256}"/>
   <bookViews>
-    <workbookView xWindow="4644" yWindow="4392" windowWidth="13320" windowHeight="6936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="86">
   <si>
     <t>UG</t>
   </si>
@@ -127,9 +121,6 @@
     <t>160129</t>
   </si>
   <si>
-    <t>167129</t>
-  </si>
-  <si>
     <t>ESA</t>
   </si>
   <si>
@@ -139,45 +130,27 @@
     <t>8965</t>
   </si>
   <si>
-    <t>2000</t>
-  </si>
-  <si>
     <t>ADEQUACAO DE ATIVOS DE INFRAESTRUTURA</t>
   </si>
   <si>
     <t>CAPACITACAO PROFISSIONAL MILITAR DO E</t>
   </si>
   <si>
-    <t>ADMINISTRACAO DA UNIDADE</t>
-  </si>
-  <si>
     <t>2022</t>
   </si>
   <si>
     <t>17289559000186</t>
   </si>
   <si>
-    <t>26669742000106</t>
-  </si>
-  <si>
     <t>05691235000190</t>
   </si>
   <si>
-    <t>38680138000151</t>
-  </si>
-  <si>
     <t>FENARA &amp; FENARA - ENGENHARIA E ADMINISTRACAO LTDA</t>
   </si>
   <si>
-    <t>J. T. CATALDO CASTRO CRIATIVA DIGITAL</t>
-  </si>
-  <si>
     <t>COPYUAI LOCACAO DE EQUIPAMENTOS LTDA</t>
   </si>
   <si>
-    <t>GESMAQ COMERCIO E SERVICOS LTDA</t>
-  </si>
-  <si>
     <t>160533</t>
   </si>
   <si>
@@ -199,27 +172,15 @@
     <t>33903916</t>
   </si>
   <si>
-    <t>33903963</t>
-  </si>
-  <si>
     <t>33904012</t>
   </si>
   <si>
-    <t>33903917</t>
-  </si>
-  <si>
     <t>MANUTENCAO E CONSERV. DE BENS IMOVEIS</t>
   </si>
   <si>
-    <t>SERVICOS GRAFICOS E EDITORIAIS</t>
-  </si>
-  <si>
     <t>MANUTENCAO E CONSERVACAO DE EQUIPAMENTOS DE TIC</t>
   </si>
   <si>
-    <t>MANUT. E CONSERV. DE MAQUINAS E EQUIPAMENTOS</t>
-  </si>
-  <si>
     <t>2022NE002483</t>
   </si>
   <si>
@@ -229,21 +190,9 @@
     <t>2022NE002702</t>
   </si>
   <si>
-    <t>2022NE002421</t>
-  </si>
-  <si>
     <t>2022NE001087</t>
   </si>
   <si>
-    <t>2022NE001843</t>
-  </si>
-  <si>
-    <t>2022NE001086</t>
-  </si>
-  <si>
-    <t>2022NE001085</t>
-  </si>
-  <si>
     <t>B4OMOBMAQUA</t>
   </si>
   <si>
@@ -253,9 +202,6 @@
     <t>C4ENMILCAPE</t>
   </si>
   <si>
-    <t>C1ENCONDETM</t>
-  </si>
-  <si>
     <t>AQUARTELAMENTO</t>
   </si>
   <si>
@@ -265,33 +211,21 @@
     <t>CAPACITACAO DE PESSOAL</t>
   </si>
   <si>
-    <t>CONCURSOS AS ESCOLAS MILITARES</t>
-  </si>
-  <si>
     <t>6012</t>
   </si>
   <si>
-    <t>0032</t>
-  </si>
-  <si>
     <t>171459</t>
   </si>
   <si>
     <t>171423</t>
   </si>
   <si>
-    <t>171502</t>
-  </si>
-  <si>
     <t>RPNP</t>
   </si>
   <si>
     <t>GLOBAL</t>
   </si>
   <si>
-    <t>ORDINARIO</t>
-  </si>
-  <si>
     <t>ESCOLA DE SARGENTOS DAS ARMAS  - AVENIDA SETE DE SETEMBRO, 628 - CENTRO - TRÊS CORAÇÕES - MG</t>
   </si>
   <si>
@@ -301,9 +235,6 @@
     <t>SP</t>
   </si>
   <si>
-    <t>RJ</t>
-  </si>
-  <si>
     <t>MG</t>
   </si>
   <si>
@@ -313,18 +244,12 @@
     <t>160503</t>
   </si>
   <si>
-    <t>167503</t>
-  </si>
-  <si>
     <t>DEC-GESTOR</t>
   </si>
   <si>
     <t>DECEX/GESTOR</t>
   </si>
   <si>
-    <t>DECEX - GESTOR</t>
-  </si>
-  <si>
     <t>B4OM</t>
   </si>
   <si>
@@ -340,9 +265,6 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>CON</t>
-  </si>
-  <si>
     <t>AQUA</t>
   </si>
   <si>
@@ -350,19 +272,16 @@
   </si>
   <si>
     <t>CAPE</t>
-  </si>
-  <si>
-    <t>DETM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -426,21 +345,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -478,7 +389,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -512,7 +423,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -547,10 +457,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -723,17 +632,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AI5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,99 +743,99 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35">
       <c r="A2" s="1">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="B2" t="s">
         <v>34</v>
       </c>
       <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="D2" t="s">
-        <v>37</v>
-      </c>
       <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>43</v>
-      </c>
-      <c r="G2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" t="s">
-        <v>48</v>
       </c>
       <c r="I2" s="2">
         <v>44909</v>
       </c>
       <c r="J2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P2" t="s">
         <v>53</v>
       </c>
-      <c r="M2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" t="s">
-        <v>56</v>
-      </c>
-      <c r="O2" t="s">
-        <v>58</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>55</v>
+      </c>
+      <c r="R2" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" t="s">
         <v>62</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="T2" t="s">
+        <v>65</v>
+      </c>
+      <c r="U2" t="s">
         <v>66</v>
       </c>
-      <c r="R2" t="s">
+      <c r="V2" t="s">
+        <v>68</v>
+      </c>
+      <c r="W2" t="s">
+        <v>69</v>
+      </c>
+      <c r="X2" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA2" t="s">
         <v>74</v>
       </c>
-      <c r="S2" t="s">
+      <c r="AB2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" t="s">
         <v>78</v>
       </c>
-      <c r="T2" t="s">
-        <v>82</v>
-      </c>
-      <c r="U2" t="s">
-        <v>84</v>
-      </c>
-      <c r="V2" t="s">
-        <v>87</v>
-      </c>
-      <c r="W2" t="s">
-        <v>88</v>
-      </c>
-      <c r="X2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>101</v>
-      </c>
       <c r="AD2" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="AE2" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AF2">
         <v>212239.4</v>
@@ -944,99 +850,99 @@
         <v>222760.6</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35">
       <c r="A3" s="1">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="D3" t="s">
-        <v>37</v>
-      </c>
       <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
       </c>
       <c r="I3" s="2">
         <v>44909</v>
       </c>
       <c r="J3">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O3" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" t="s">
         <v>53</v>
       </c>
-      <c r="M3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>56</v>
       </c>
-      <c r="O3" t="s">
-        <v>58</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" t="s">
         <v>62</v>
       </c>
-      <c r="Q3" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>65</v>
+      </c>
+      <c r="U3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3" t="s">
+        <v>68</v>
+      </c>
+      <c r="W3" t="s">
+        <v>69</v>
+      </c>
+      <c r="X3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA3" t="s">
         <v>74</v>
       </c>
-      <c r="S3" t="s">
+      <c r="AB3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC3" t="s">
         <v>78</v>
       </c>
-      <c r="T3" t="s">
-        <v>82</v>
-      </c>
-      <c r="U3" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" t="s">
-        <v>87</v>
-      </c>
-      <c r="W3" t="s">
-        <v>88</v>
-      </c>
-      <c r="X3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>101</v>
-      </c>
       <c r="AD3" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="AE3" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="AF3">
         <v>155796.97</v>
@@ -1051,99 +957,99 @@
         <v>204469.27</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35">
       <c r="A4" s="1">
-        <v>3010</v>
+        <v>3012</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>43</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
       </c>
       <c r="I4" s="2">
         <v>44923</v>
       </c>
       <c r="J4">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="K4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N4" t="s">
+        <v>49</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
         <v>53</v>
       </c>
-      <c r="M4" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O4" t="s">
-        <v>58</v>
-      </c>
-      <c r="P4" t="s">
-        <v>62</v>
-      </c>
       <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" t="s">
+        <v>63</v>
+      </c>
+      <c r="T4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4" t="s">
+        <v>67</v>
+      </c>
+      <c r="V4" t="s">
         <v>68</v>
       </c>
-      <c r="R4" t="s">
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA4" t="s">
         <v>75</v>
       </c>
-      <c r="S4" t="s">
+      <c r="AB4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC4" t="s">
         <v>79</v>
       </c>
-      <c r="T4" t="s">
+      <c r="AD4" t="s">
         <v>82</v>
       </c>
-      <c r="U4" t="s">
-        <v>85</v>
-      </c>
-      <c r="V4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W4" t="s">
-        <v>88</v>
-      </c>
-      <c r="X4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>105</v>
-      </c>
       <c r="AE4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="AF4">
         <v>12733.76</v>
@@ -1158,539 +1064,111 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35">
       <c r="A5" s="1">
-        <v>3017</v>
+        <v>2995</v>
       </c>
       <c r="B5" t="s">
         <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="2">
+        <v>44840</v>
+      </c>
+      <c r="J5">
+        <v>449</v>
+      </c>
+      <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="2">
-        <v>44895</v>
-      </c>
-      <c r="J5">
-        <v>379</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" t="s">
         <v>52</v>
       </c>
-      <c r="L5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>54</v>
       </c>
-      <c r="N5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O5" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" t="s">
-        <v>63</v>
-      </c>
       <c r="Q5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R5" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" t="s">
+        <v>64</v>
+      </c>
+      <c r="T5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5" t="s">
+        <v>67</v>
+      </c>
+      <c r="V5" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" t="s">
         <v>69</v>
       </c>
-      <c r="R5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" t="s">
+      <c r="X5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC5" t="s">
         <v>80</v>
       </c>
-      <c r="T5" t="s">
+      <c r="AD5" t="s">
         <v>82</v>
       </c>
-      <c r="U5" t="s">
+      <c r="AE5" t="s">
         <v>85</v>
       </c>
-      <c r="V5" t="s">
-        <v>87</v>
-      </c>
-      <c r="W5" t="s">
-        <v>89</v>
-      </c>
-      <c r="X5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>109</v>
-      </c>
       <c r="AF5">
-        <v>5758.75</v>
+        <v>1598</v>
       </c>
       <c r="AG5">
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>5758.75</v>
+        <v>1598</v>
       </c>
       <c r="AI5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>2993</v>
-      </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="2">
-        <v>44840</v>
-      </c>
-      <c r="J6">
-        <v>434</v>
-      </c>
-      <c r="K6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" t="s">
-        <v>57</v>
-      </c>
-      <c r="O6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S6" t="s">
-        <v>80</v>
-      </c>
-      <c r="T6" t="s">
-        <v>82</v>
-      </c>
-      <c r="U6" t="s">
-        <v>85</v>
-      </c>
-      <c r="V6" t="s">
-        <v>87</v>
-      </c>
-      <c r="W6" t="s">
-        <v>88</v>
-      </c>
-      <c r="X6" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF6">
-        <v>1598</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>1598</v>
-      </c>
-      <c r="AI6">
         <v>7990</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>3287</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="2">
-        <v>44895</v>
-      </c>
-      <c r="J7">
-        <v>379</v>
-      </c>
-      <c r="K7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M7" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" t="s">
-        <v>56</v>
-      </c>
-      <c r="O7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>71</v>
-      </c>
-      <c r="R7" t="s">
-        <v>77</v>
-      </c>
-      <c r="S7" t="s">
-        <v>81</v>
-      </c>
-      <c r="T7" t="s">
-        <v>83</v>
-      </c>
-      <c r="U7" t="s">
-        <v>86</v>
-      </c>
-      <c r="V7" t="s">
-        <v>87</v>
-      </c>
-      <c r="W7" t="s">
-        <v>89</v>
-      </c>
-      <c r="X7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF7">
-        <v>1016.25</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>1016.25</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>3028</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="2">
-        <v>44840</v>
-      </c>
-      <c r="J8">
-        <v>434</v>
-      </c>
-      <c r="K8" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" t="s">
-        <v>53</v>
-      </c>
-      <c r="M8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" t="s">
-        <v>60</v>
-      </c>
-      <c r="P8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>72</v>
-      </c>
-      <c r="R8" t="s">
-        <v>76</v>
-      </c>
-      <c r="S8" t="s">
-        <v>80</v>
-      </c>
-      <c r="T8" t="s">
-        <v>82</v>
-      </c>
-      <c r="U8" t="s">
-        <v>85</v>
-      </c>
-      <c r="V8" t="s">
-        <v>87</v>
-      </c>
-      <c r="W8" t="s">
-        <v>88</v>
-      </c>
-      <c r="X8" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF8">
-        <v>0.04</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0.04</v>
-      </c>
-      <c r="AI8">
-        <v>20799.96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>3027</v>
-      </c>
-      <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="2">
-        <v>44840</v>
-      </c>
-      <c r="J9">
-        <v>434</v>
-      </c>
-      <c r="K9" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" t="s">
-        <v>53</v>
-      </c>
-      <c r="M9" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" t="s">
-        <v>61</v>
-      </c>
-      <c r="P9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>73</v>
-      </c>
-      <c r="R9" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" t="s">
-        <v>80</v>
-      </c>
-      <c r="T9" t="s">
-        <v>82</v>
-      </c>
-      <c r="U9" t="s">
-        <v>85</v>
-      </c>
-      <c r="V9" t="s">
-        <v>87</v>
-      </c>
-      <c r="W9" t="s">
-        <v>88</v>
-      </c>
-      <c r="X9" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>96</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF9">
-        <v>0.02</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0.02</v>
-      </c>
-      <c r="AI9">
-        <v>33259.980000000003</v>
       </c>
     </row>
   </sheetData>
